--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -108,16 +108,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7602630257606506</v>
+        <v>0.7393320202827454</v>
       </c>
       <c r="D2" s="0">
-        <v>0.7465069890022278</v>
+        <v>0.7538869976997375</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7373290061950684</v>
+        <v>0.7440699934959412</v>
       </c>
       <c r="F2" s="0">
-        <v>0.7464290261268616</v>
+        <v>0.750868022441864</v>
       </c>
     </row>
     <row r="3">
@@ -125,19 +125,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.7602630257606506</v>
+        <v>0.7393320202827454</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.7624350190162659</v>
+        <v>0.7491959929466248</v>
       </c>
       <c r="E3" s="0">
-        <v>0.7529100179672241</v>
+        <v>0.7436119914054871</v>
       </c>
       <c r="F3" s="0">
-        <v>0.7340729832649231</v>
+        <v>0.7526829838752747</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +145,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.7465069890022278</v>
+        <v>0.7538869976997375</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7624350190162659</v>
+        <v>0.7491959929466248</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0.756816029548645</v>
+        <v>0.7553529739379883</v>
       </c>
       <c r="F4" s="0">
-        <v>0.7541099786758423</v>
+        <v>0.7544909715652466</v>
       </c>
     </row>
     <row r="5">
@@ -165,19 +165,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.7373290061950684</v>
+        <v>0.7440699934959412</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7529100179672241</v>
+        <v>0.7436119914054871</v>
       </c>
       <c r="D5" s="0">
-        <v>0.756816029548645</v>
+        <v>0.7553529739379883</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.7412689924240112</v>
+        <v>0.7480329871177673</v>
       </c>
     </row>
     <row r="6">
@@ -185,16 +185,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.7464290261268616</v>
+        <v>0.750868022441864</v>
       </c>
       <c r="C6" s="0">
-        <v>0.7340729832649231</v>
+        <v>0.7526829838752747</v>
       </c>
       <c r="D6" s="0">
-        <v>0.7541099786758423</v>
+        <v>0.7544909715652466</v>
       </c>
       <c r="E6" s="0">
-        <v>0.7412689924240112</v>
+        <v>0.7480329871177673</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>

--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -108,16 +108,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.756879985332489</v>
+        <v>0.7520250082015991</v>
       </c>
       <c r="D2" s="0">
-        <v>0.7537840008735657</v>
+        <v>0.7531350255012512</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7400820255279541</v>
+        <v>0.7619649767875671</v>
       </c>
       <c r="F2" s="0">
-        <v>0.7563340067863464</v>
+        <v>0.7566450238227844</v>
       </c>
     </row>
     <row r="3">
@@ -125,19 +125,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.756879985332489</v>
+        <v>0.7520250082015991</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.7549440264701843</v>
+        <v>0.7612069845199585</v>
       </c>
       <c r="E3" s="0">
-        <v>0.7531949877738953</v>
+        <v>0.7547069787979126</v>
       </c>
       <c r="F3" s="0">
-        <v>0.7546160221099854</v>
+        <v>0.7510539889335632</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +145,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.7537840008735657</v>
+        <v>0.7531350255012512</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7549440264701843</v>
+        <v>0.7612069845199585</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0.7443900108337402</v>
+        <v>0.7467920184135437</v>
       </c>
       <c r="F4" s="0">
-        <v>0.7523819804191589</v>
+        <v>0.7525380253791809</v>
       </c>
     </row>
     <row r="5">
@@ -165,19 +165,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.7400820255279541</v>
+        <v>0.7619649767875671</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7531949877738953</v>
+        <v>0.7547069787979126</v>
       </c>
       <c r="D5" s="0">
-        <v>0.7443900108337402</v>
+        <v>0.7467920184135437</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.7555969953536987</v>
+        <v>0.7510250210762024</v>
       </c>
     </row>
     <row r="6">
@@ -185,16 +185,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.7563340067863464</v>
+        <v>0.7566450238227844</v>
       </c>
       <c r="C6" s="0">
-        <v>0.7546160221099854</v>
+        <v>0.7510539889335632</v>
       </c>
       <c r="D6" s="0">
-        <v>0.7523819804191589</v>
+        <v>0.7525380253791809</v>
       </c>
       <c r="E6" s="0">
-        <v>0.7555969953536987</v>
+        <v>0.7510250210762024</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>

--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -108,16 +108,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7520250082015991</v>
+        <v>0.7368159890174866</v>
       </c>
       <c r="D2" s="0">
-        <v>0.7531350255012512</v>
+        <v>0.7409800291061401</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7619649767875671</v>
+        <v>0.7540770173072815</v>
       </c>
       <c r="F2" s="0">
-        <v>0.7566450238227844</v>
+        <v>0.746192991733551</v>
       </c>
     </row>
     <row r="3">
@@ -125,19 +125,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.7520250082015991</v>
+        <v>0.7368159890174866</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.7612069845199585</v>
+        <v>0.7544479966163635</v>
       </c>
       <c r="E3" s="0">
-        <v>0.7547069787979126</v>
+        <v>0.7549520134925842</v>
       </c>
       <c r="F3" s="0">
-        <v>0.7510539889335632</v>
+        <v>0.7448930144309998</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +145,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.7531350255012512</v>
+        <v>0.7409800291061401</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7612069845199585</v>
+        <v>0.7544479966163635</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0.7467920184135437</v>
+        <v>0.7431319952011108</v>
       </c>
       <c r="F4" s="0">
-        <v>0.7525380253791809</v>
+        <v>0.7401930093765259</v>
       </c>
     </row>
     <row r="5">
@@ -165,19 +165,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.7619649767875671</v>
+        <v>0.7540770173072815</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7547069787979126</v>
+        <v>0.7549520134925842</v>
       </c>
       <c r="D5" s="0">
-        <v>0.7467920184135437</v>
+        <v>0.7431319952011108</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.7510250210762024</v>
+        <v>0.7469760179519653</v>
       </c>
     </row>
     <row r="6">
@@ -185,16 +185,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.7566450238227844</v>
+        <v>0.746192991733551</v>
       </c>
       <c r="C6" s="0">
-        <v>0.7510539889335632</v>
+        <v>0.7448930144309998</v>
       </c>
       <c r="D6" s="0">
-        <v>0.7525380253791809</v>
+        <v>0.7401930093765259</v>
       </c>
       <c r="E6" s="0">
-        <v>0.7510250210762024</v>
+        <v>0.7469760179519653</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>

--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -108,16 +108,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7368159890174866</v>
+        <v>0.7329810261726379</v>
       </c>
       <c r="D2" s="0">
-        <v>0.7409800291061401</v>
+        <v>0.7609469890594482</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7540770173072815</v>
+        <v>0.7395280003547668</v>
       </c>
       <c r="F2" s="0">
-        <v>0.746192991733551</v>
+        <v>0.7491959929466248</v>
       </c>
     </row>
     <row r="3">
@@ -125,19 +125,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.7368159890174866</v>
+        <v>0.7329810261726379</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.7544479966163635</v>
+        <v>0.749222993850708</v>
       </c>
       <c r="E3" s="0">
-        <v>0.7549520134925842</v>
+        <v>0.7478870153427124</v>
       </c>
       <c r="F3" s="0">
-        <v>0.7448930144309998</v>
+        <v>0.7429620027542114</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +145,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.7409800291061401</v>
+        <v>0.7609469890594482</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7544479966163635</v>
+        <v>0.749222993850708</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0.7431319952011108</v>
+        <v>0.762906014919281</v>
       </c>
       <c r="F4" s="0">
-        <v>0.7401930093765259</v>
+        <v>0.7449809908866882</v>
       </c>
     </row>
     <row r="5">
@@ -165,19 +165,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.7540770173072815</v>
+        <v>0.7395280003547668</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7549520134925842</v>
+        <v>0.7478870153427124</v>
       </c>
       <c r="D5" s="0">
-        <v>0.7431319952011108</v>
+        <v>0.762906014919281</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.7469760179519653</v>
+        <v>0.7422339916229248</v>
       </c>
     </row>
     <row r="6">
@@ -185,16 +185,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.746192991733551</v>
+        <v>0.7491959929466248</v>
       </c>
       <c r="C6" s="0">
-        <v>0.7448930144309998</v>
+        <v>0.7429620027542114</v>
       </c>
       <c r="D6" s="0">
-        <v>0.7401930093765259</v>
+        <v>0.7449809908866882</v>
       </c>
       <c r="E6" s="0">
-        <v>0.7469760179519653</v>
+        <v>0.7422339916229248</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>

--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifted</t>
   </si>
   <si>
     <t xml:space="preserve">SaturationAdjusted</t>
@@ -74,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -96,9 +93,6 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -108,16 +102,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7329810261726379</v>
+        <v>0.962485134601593</v>
       </c>
       <c r="D2" s="0">
-        <v>0.7609469890594482</v>
+        <v>0.97483229637146</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7395280003547668</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.7491959929466248</v>
+        <v>0.9629209041595459</v>
       </c>
     </row>
     <row r="3">
@@ -125,19 +116,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.7329810261726379</v>
+        <v>0.962485134601593</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.749222993850708</v>
+        <v>0.9627817869186401</v>
       </c>
       <c r="E3" s="0">
-        <v>0.7478870153427124</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.7429620027542114</v>
+        <v>0.9476906061172485</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +133,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.7609469890594482</v>
+        <v>0.97483229637146</v>
       </c>
       <c r="C4" s="0">
-        <v>0.749222993850708</v>
+        <v>0.9627817869186401</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="E4" s="0">
-        <v>0.762906014919281</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.7449809908866882</v>
+        <v>0.9725378751754761</v>
       </c>
     </row>
     <row r="5">
@@ -165,39 +150,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.7395280003547668</v>
+        <v>0.9629209041595459</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7478870153427124</v>
+        <v>0.9476906061172485</v>
       </c>
       <c r="D5" s="0">
-        <v>0.762906014919281</v>
+        <v>0.9725378751754761</v>
       </c>
       <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.7422339916229248</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.7491959929466248</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.7429620027542114</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.7449809908866882</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.7422339916229248</v>
-      </c>
-      <c r="F6" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -165,49 +165,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.8700226545333862</v>
+        <v>0.9256170988082886</v>
       </c>
       <c r="D2" s="0">
-        <v>0.8806255459785461</v>
+        <v>0.9357141852378845</v>
       </c>
       <c r="E2" s="0">
-        <v>0.9034364819526672</v>
+        <v>0.9509091377258301</v>
       </c>
       <c r="F2" s="0">
-        <v>0.8700534701347351</v>
+        <v>0.9327097535133362</v>
       </c>
       <c r="G2" s="0">
-        <v>0.8426104784011841</v>
+        <v>0.9211363792419434</v>
       </c>
       <c r="H2" s="0">
-        <v>0.8259506225585938</v>
+        <v>0.9049039483070374</v>
       </c>
       <c r="I2" s="0">
-        <v>0.8436840176582336</v>
+        <v>0.9180084466934204</v>
       </c>
       <c r="J2" s="0">
-        <v>0.8302123546600342</v>
+        <v>0.9079117774963379</v>
       </c>
       <c r="K2" s="0">
-        <v>0.8151837587356567</v>
+        <v>0.9092013835906982</v>
       </c>
       <c r="L2" s="0">
-        <v>0.8713194131851196</v>
+        <v>0.9318261742591858</v>
       </c>
       <c r="M2" s="0">
-        <v>0.8174880743026733</v>
+        <v>0.9232932925224304</v>
       </c>
       <c r="N2" s="0">
-        <v>0.8291998505592346</v>
+        <v>0.9201399683952332</v>
       </c>
       <c r="O2" s="0">
-        <v>0.8683268427848816</v>
+        <v>0.9414764642715454</v>
       </c>
       <c r="P2" s="0">
-        <v>0.8456671237945557</v>
+        <v>0.8817219138145447</v>
       </c>
     </row>
     <row r="3">
@@ -215,49 +215,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.8700226545333862</v>
+        <v>0.9256170988082886</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.910161554813385</v>
+        <v>0.9594947099685669</v>
       </c>
       <c r="E3" s="0">
-        <v>0.8609097599983215</v>
+        <v>0.9242032170295715</v>
       </c>
       <c r="F3" s="0">
-        <v>0.8262291550636292</v>
+        <v>0.9018773436546326</v>
       </c>
       <c r="G3" s="0">
-        <v>0.798132061958313</v>
+        <v>0.893177330493927</v>
       </c>
       <c r="H3" s="0">
-        <v>0.7756343483924866</v>
+        <v>0.8850354552268982</v>
       </c>
       <c r="I3" s="0">
-        <v>0.792673647403717</v>
+        <v>0.8899036645889282</v>
       </c>
       <c r="J3" s="0">
-        <v>0.7738240957260132</v>
+        <v>0.8772271275520325</v>
       </c>
       <c r="K3" s="0">
-        <v>0.7613033652305603</v>
+        <v>0.8828825354576111</v>
       </c>
       <c r="L3" s="0">
-        <v>0.8238439559936523</v>
+        <v>0.898924708366394</v>
       </c>
       <c r="M3" s="0">
-        <v>0.7729262709617615</v>
+        <v>0.897709310054779</v>
       </c>
       <c r="N3" s="0">
-        <v>0.7649438977241516</v>
+        <v>0.8840367794036865</v>
       </c>
       <c r="O3" s="0">
-        <v>0.8439347147941589</v>
+        <v>0.9222460985183716</v>
       </c>
       <c r="P3" s="0">
-        <v>0.7935146689414978</v>
+        <v>0.8524534106254578</v>
       </c>
     </row>
     <row r="4">
@@ -265,49 +265,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.8806255459785461</v>
+        <v>0.9357141852378845</v>
       </c>
       <c r="C4" s="0">
-        <v>0.910161554813385</v>
+        <v>0.9594947099685669</v>
       </c>
       <c r="D4" s="0">
         <v>1.0000001192092896</v>
       </c>
       <c r="E4" s="0">
-        <v>0.8624612092971802</v>
+        <v>0.9430913925170898</v>
       </c>
       <c r="F4" s="0">
-        <v>0.8887132406234741</v>
+        <v>0.9311843514442444</v>
       </c>
       <c r="G4" s="0">
-        <v>0.8616104125976562</v>
+        <v>0.9246788024902344</v>
       </c>
       <c r="H4" s="0">
-        <v>0.8408406972885132</v>
+        <v>0.9107555747032166</v>
       </c>
       <c r="I4" s="0">
-        <v>0.8519172668457031</v>
+        <v>0.9140034317970276</v>
       </c>
       <c r="J4" s="0">
-        <v>0.8467226624488831</v>
+        <v>0.904209315776825</v>
       </c>
       <c r="K4" s="0">
-        <v>0.8321560621261597</v>
+        <v>0.9103715419769287</v>
       </c>
       <c r="L4" s="0">
-        <v>0.8604570627212524</v>
+        <v>0.9184842109680176</v>
       </c>
       <c r="M4" s="0">
-        <v>0.8329641819000244</v>
+        <v>0.9177511930465698</v>
       </c>
       <c r="N4" s="0">
-        <v>0.8245516419410706</v>
+        <v>0.9107533693313599</v>
       </c>
       <c r="O4" s="0">
-        <v>0.8932701945304871</v>
+        <v>0.93817538022995</v>
       </c>
       <c r="P4" s="0">
-        <v>0.8542640209197998</v>
+        <v>0.8753235340118408</v>
       </c>
     </row>
     <row r="5">
@@ -315,49 +315,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.9034364819526672</v>
+        <v>0.9509091377258301</v>
       </c>
       <c r="C5" s="0">
-        <v>0.8609097599983215</v>
+        <v>0.9242032170295715</v>
       </c>
       <c r="D5" s="0">
-        <v>0.8624612092971802</v>
+        <v>0.9430913925170898</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.8412278890609741</v>
+        <v>0.9209914207458496</v>
       </c>
       <c r="G5" s="0">
-        <v>0.7994533181190491</v>
+        <v>0.9001206755638123</v>
       </c>
       <c r="H5" s="0">
-        <v>0.7894774079322815</v>
+        <v>0.8856858015060425</v>
       </c>
       <c r="I5" s="0">
-        <v>0.8059080243110657</v>
+        <v>0.8936685919761658</v>
       </c>
       <c r="J5" s="0">
-        <v>0.7859436273574829</v>
+        <v>0.8812952041625977</v>
       </c>
       <c r="K5" s="0">
-        <v>0.7653277516365051</v>
+        <v>0.8807569146156311</v>
       </c>
       <c r="L5" s="0">
-        <v>0.8330802917480469</v>
+        <v>0.9036240577697754</v>
       </c>
       <c r="M5" s="0">
-        <v>0.785986065864563</v>
+        <v>0.8995594382286072</v>
       </c>
       <c r="N5" s="0">
-        <v>0.7924559712409973</v>
+        <v>0.9002088904380798</v>
       </c>
       <c r="O5" s="0">
-        <v>0.806034505367279</v>
+        <v>0.9092230200767517</v>
       </c>
       <c r="P5" s="0">
-        <v>0.7991769909858704</v>
+        <v>0.8651469349861145</v>
       </c>
     </row>
     <row r="6">
@@ -365,49 +365,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.8700534701347351</v>
+        <v>0.9327097535133362</v>
       </c>
       <c r="C6" s="0">
-        <v>0.8262291550636292</v>
+        <v>0.9018773436546326</v>
       </c>
       <c r="D6" s="0">
-        <v>0.8887132406234741</v>
+        <v>0.9311843514442444</v>
       </c>
       <c r="E6" s="0">
-        <v>0.8412278890609741</v>
+        <v>0.9209914207458496</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
       </c>
       <c r="G6" s="0">
-        <v>0.9314686059951782</v>
+        <v>0.9576440453529358</v>
       </c>
       <c r="H6" s="0">
-        <v>0.9122863411903381</v>
+        <v>0.9445624351501465</v>
       </c>
       <c r="I6" s="0">
-        <v>0.921320378780365</v>
+        <v>0.9501506686210632</v>
       </c>
       <c r="J6" s="0">
-        <v>0.9189505577087402</v>
+        <v>0.9460419416427612</v>
       </c>
       <c r="K6" s="0">
-        <v>0.892803966999054</v>
+        <v>0.9369499683380127</v>
       </c>
       <c r="L6" s="0">
-        <v>0.9250059723854065</v>
+        <v>0.9488138556480408</v>
       </c>
       <c r="M6" s="0">
-        <v>0.911557137966156</v>
+        <v>0.9433546662330627</v>
       </c>
       <c r="N6" s="0">
-        <v>0.9097105860710144</v>
+        <v>0.9483858346939087</v>
       </c>
       <c r="O6" s="0">
-        <v>0.903998613357544</v>
+        <v>0.94460529088974</v>
       </c>
       <c r="P6" s="0">
-        <v>0.9258324503898621</v>
+        <v>0.9317516684532166</v>
       </c>
     </row>
     <row r="7">
@@ -415,49 +415,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.8426104784011841</v>
+        <v>0.9211363792419434</v>
       </c>
       <c r="C7" s="0">
-        <v>0.798132061958313</v>
+        <v>0.893177330493927</v>
       </c>
       <c r="D7" s="0">
-        <v>0.8616104125976562</v>
+        <v>0.9246788024902344</v>
       </c>
       <c r="E7" s="0">
-        <v>0.7994533181190491</v>
+        <v>0.9001206755638123</v>
       </c>
       <c r="F7" s="0">
-        <v>0.9314686059951782</v>
+        <v>0.9576440453529358</v>
       </c>
       <c r="G7" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0">
-        <v>0.9708175659179688</v>
+        <v>0.9804522395133972</v>
       </c>
       <c r="I7" s="0">
-        <v>0.9671612977981567</v>
+        <v>0.9765084385871887</v>
       </c>
       <c r="J7" s="0">
-        <v>0.971256673336029</v>
+        <v>0.9822197556495667</v>
       </c>
       <c r="K7" s="0">
-        <v>0.9415450692176819</v>
+        <v>0.9740687608718872</v>
       </c>
       <c r="L7" s="0">
-        <v>0.931813657283783</v>
+        <v>0.974353551864624</v>
       </c>
       <c r="M7" s="0">
-        <v>0.9583489298820496</v>
+        <v>0.9726462364196777</v>
       </c>
       <c r="N7" s="0">
-        <v>0.9514673948287964</v>
+        <v>0.9754493832588196</v>
       </c>
       <c r="O7" s="0">
-        <v>0.9251284003257751</v>
+        <v>0.9596290588378906</v>
       </c>
       <c r="P7" s="0">
-        <v>0.9713919162750244</v>
+        <v>0.944634735584259</v>
       </c>
     </row>
     <row r="8">
@@ -465,49 +465,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.8259506225585938</v>
+        <v>0.9049039483070374</v>
       </c>
       <c r="C8" s="0">
-        <v>0.7756343483924866</v>
+        <v>0.8850354552268982</v>
       </c>
       <c r="D8" s="0">
-        <v>0.8408406972885132</v>
+        <v>0.9107555747032166</v>
       </c>
       <c r="E8" s="0">
-        <v>0.7894774079322815</v>
+        <v>0.8856858015060425</v>
       </c>
       <c r="F8" s="0">
-        <v>0.9122863411903381</v>
+        <v>0.9445624351501465</v>
       </c>
       <c r="G8" s="0">
-        <v>0.9708175659179688</v>
+        <v>0.9804522395133972</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
       </c>
       <c r="I8" s="0">
-        <v>0.9667011499404907</v>
+        <v>0.9760296940803528</v>
       </c>
       <c r="J8" s="0">
-        <v>0.9735565781593323</v>
+        <v>0.9806009531021118</v>
       </c>
       <c r="K8" s="0">
-        <v>0.9364160299301147</v>
+        <v>0.9652830958366394</v>
       </c>
       <c r="L8" s="0">
-        <v>0.931374728679657</v>
+        <v>0.9684832096099854</v>
       </c>
       <c r="M8" s="0">
-        <v>0.953484833240509</v>
+        <v>0.9708789587020874</v>
       </c>
       <c r="N8" s="0">
-        <v>0.9538506865501404</v>
+        <v>0.9724311232566833</v>
       </c>
       <c r="O8" s="0">
-        <v>0.9115075469017029</v>
+        <v>0.9427897334098816</v>
       </c>
       <c r="P8" s="0">
-        <v>0.9687541127204895</v>
+        <v>0.9360511302947998</v>
       </c>
     </row>
     <row r="9">
@@ -515,49 +515,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.8436840176582336</v>
+        <v>0.9180084466934204</v>
       </c>
       <c r="C9" s="0">
-        <v>0.792673647403717</v>
+        <v>0.8899036645889282</v>
       </c>
       <c r="D9" s="0">
-        <v>0.8519172668457031</v>
+        <v>0.9140034317970276</v>
       </c>
       <c r="E9" s="0">
-        <v>0.8059080243110657</v>
+        <v>0.8936685919761658</v>
       </c>
       <c r="F9" s="0">
-        <v>0.921320378780365</v>
+        <v>0.9501506686210632</v>
       </c>
       <c r="G9" s="0">
-        <v>0.9671612977981567</v>
+        <v>0.9765084385871887</v>
       </c>
       <c r="H9" s="0">
-        <v>0.9667011499404907</v>
+        <v>0.9760296940803528</v>
       </c>
       <c r="I9" s="0">
         <v>1.0000001192092896</v>
       </c>
       <c r="J9" s="0">
-        <v>0.9725273847579956</v>
+        <v>0.982770562171936</v>
       </c>
       <c r="K9" s="0">
-        <v>0.9381471872329712</v>
+        <v>0.9716765880584717</v>
       </c>
       <c r="L9" s="0">
-        <v>0.9336391091346741</v>
+        <v>0.9716586470603943</v>
       </c>
       <c r="M9" s="0">
-        <v>0.9507287740707397</v>
+        <v>0.9712207317352295</v>
       </c>
       <c r="N9" s="0">
-        <v>0.9383697509765625</v>
+        <v>0.9663276672363281</v>
       </c>
       <c r="O9" s="0">
-        <v>0.9130144119262695</v>
+        <v>0.9524972438812256</v>
       </c>
       <c r="P9" s="0">
-        <v>0.9605309367179871</v>
+        <v>0.924644410610199</v>
       </c>
     </row>
     <row r="10">
@@ -565,49 +565,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0.8302123546600342</v>
+        <v>0.9079117774963379</v>
       </c>
       <c r="C10" s="0">
-        <v>0.7738240957260132</v>
+        <v>0.8772271275520325</v>
       </c>
       <c r="D10" s="0">
-        <v>0.8467226624488831</v>
+        <v>0.904209315776825</v>
       </c>
       <c r="E10" s="0">
-        <v>0.7859436273574829</v>
+        <v>0.8812952041625977</v>
       </c>
       <c r="F10" s="0">
-        <v>0.9189505577087402</v>
+        <v>0.9460419416427612</v>
       </c>
       <c r="G10" s="0">
-        <v>0.971256673336029</v>
+        <v>0.9822197556495667</v>
       </c>
       <c r="H10" s="0">
-        <v>0.9735565781593323</v>
+        <v>0.9806009531021118</v>
       </c>
       <c r="I10" s="0">
-        <v>0.9725273847579956</v>
+        <v>0.982770562171936</v>
       </c>
       <c r="J10" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="K10" s="0">
-        <v>0.9439420700073242</v>
+        <v>0.9777085185050964</v>
       </c>
       <c r="L10" s="0">
-        <v>0.9314566850662231</v>
+        <v>0.9762486219406128</v>
       </c>
       <c r="M10" s="0">
-        <v>0.954687774181366</v>
+        <v>0.972843587398529</v>
       </c>
       <c r="N10" s="0">
-        <v>0.9481961131095886</v>
+        <v>0.9736344814300537</v>
       </c>
       <c r="O10" s="0">
-        <v>0.9143189787864685</v>
+        <v>0.9514173865318298</v>
       </c>
       <c r="P10" s="0">
-        <v>0.9682283401489258</v>
+        <v>0.9340088963508606</v>
       </c>
     </row>
     <row r="11">
@@ -615,49 +615,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.8151837587356567</v>
+        <v>0.9092013835906982</v>
       </c>
       <c r="C11" s="0">
-        <v>0.7613033652305603</v>
+        <v>0.8828825354576111</v>
       </c>
       <c r="D11" s="0">
-        <v>0.8321560621261597</v>
+        <v>0.9103715419769287</v>
       </c>
       <c r="E11" s="0">
-        <v>0.7653277516365051</v>
+        <v>0.8807569146156311</v>
       </c>
       <c r="F11" s="0">
-        <v>0.892803966999054</v>
+        <v>0.9369499683380127</v>
       </c>
       <c r="G11" s="0">
-        <v>0.9415450692176819</v>
+        <v>0.9740687608718872</v>
       </c>
       <c r="H11" s="0">
-        <v>0.9364160299301147</v>
+        <v>0.9652830958366394</v>
       </c>
       <c r="I11" s="0">
-        <v>0.9381471872329712</v>
+        <v>0.9716765880584717</v>
       </c>
       <c r="J11" s="0">
-        <v>0.9439420700073242</v>
+        <v>0.9777085185050964</v>
       </c>
       <c r="K11" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="L11" s="0">
-        <v>0.89478999376297</v>
+        <v>0.9661189317703247</v>
       </c>
       <c r="M11" s="0">
-        <v>0.922702431678772</v>
+        <v>0.9611099362373352</v>
       </c>
       <c r="N11" s="0">
-        <v>0.9039543867111206</v>
+        <v>0.9566656351089478</v>
       </c>
       <c r="O11" s="0">
-        <v>0.9018213152885437</v>
+        <v>0.949671745300293</v>
       </c>
       <c r="P11" s="0">
-        <v>0.9346005320549011</v>
+        <v>0.9176278114318848</v>
       </c>
     </row>
     <row r="12">
@@ -665,49 +665,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.8713194131851196</v>
+        <v>0.9318261742591858</v>
       </c>
       <c r="C12" s="0">
-        <v>0.8238439559936523</v>
+        <v>0.898924708366394</v>
       </c>
       <c r="D12" s="0">
-        <v>0.8604570627212524</v>
+        <v>0.9184842109680176</v>
       </c>
       <c r="E12" s="0">
-        <v>0.8330802917480469</v>
+        <v>0.9036240577697754</v>
       </c>
       <c r="F12" s="0">
-        <v>0.9250059723854065</v>
+        <v>0.9488138556480408</v>
       </c>
       <c r="G12" s="0">
-        <v>0.931813657283783</v>
+        <v>0.974353551864624</v>
       </c>
       <c r="H12" s="0">
-        <v>0.931374728679657</v>
+        <v>0.9684832096099854</v>
       </c>
       <c r="I12" s="0">
-        <v>0.9336391091346741</v>
+        <v>0.9716586470603943</v>
       </c>
       <c r="J12" s="0">
-        <v>0.9314566850662231</v>
+        <v>0.9762486219406128</v>
       </c>
       <c r="K12" s="0">
-        <v>0.89478999376297</v>
+        <v>0.9661189317703247</v>
       </c>
       <c r="L12" s="0">
         <v>1</v>
       </c>
       <c r="M12" s="0">
-        <v>0.9147729277610779</v>
+        <v>0.968662679195404</v>
       </c>
       <c r="N12" s="0">
-        <v>0.9394749402999878</v>
+        <v>0.9777703285217285</v>
       </c>
       <c r="O12" s="0">
-        <v>0.8992242813110352</v>
+        <v>0.9555644392967224</v>
       </c>
       <c r="P12" s="0">
-        <v>0.9297968745231628</v>
+        <v>0.9260687232017517</v>
       </c>
     </row>
     <row r="13">
@@ -715,49 +715,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0.8174880743026733</v>
+        <v>0.9232932925224304</v>
       </c>
       <c r="C13" s="0">
-        <v>0.7729262709617615</v>
+        <v>0.897709310054779</v>
       </c>
       <c r="D13" s="0">
-        <v>0.8329641819000244</v>
+        <v>0.9177511930465698</v>
       </c>
       <c r="E13" s="0">
-        <v>0.785986065864563</v>
+        <v>0.8995594382286072</v>
       </c>
       <c r="F13" s="0">
-        <v>0.911557137966156</v>
+        <v>0.9433546662330627</v>
       </c>
       <c r="G13" s="0">
-        <v>0.9583489298820496</v>
+        <v>0.9726462364196777</v>
       </c>
       <c r="H13" s="0">
-        <v>0.953484833240509</v>
+        <v>0.9708789587020874</v>
       </c>
       <c r="I13" s="0">
-        <v>0.9507287740707397</v>
+        <v>0.9712207317352295</v>
       </c>
       <c r="J13" s="0">
-        <v>0.954687774181366</v>
+        <v>0.972843587398529</v>
       </c>
       <c r="K13" s="0">
-        <v>0.922702431678772</v>
+        <v>0.9611099362373352</v>
       </c>
       <c r="L13" s="0">
-        <v>0.9147729277610779</v>
+        <v>0.968662679195404</v>
       </c>
       <c r="M13" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0">
-        <v>0.9374417066574097</v>
+        <v>0.9697480797767639</v>
       </c>
       <c r="O13" s="0">
-        <v>0.9023904204368591</v>
+        <v>0.9476518034934998</v>
       </c>
       <c r="P13" s="0">
-        <v>0.9464256167411804</v>
+        <v>0.9217697381973267</v>
       </c>
     </row>
     <row r="14">
@@ -765,49 +765,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0.8291998505592346</v>
+        <v>0.9201399683952332</v>
       </c>
       <c r="C14" s="0">
-        <v>0.7649438977241516</v>
+        <v>0.8840367794036865</v>
       </c>
       <c r="D14" s="0">
-        <v>0.8245516419410706</v>
+        <v>0.9107533693313599</v>
       </c>
       <c r="E14" s="0">
-        <v>0.7924559712409973</v>
+        <v>0.9002088904380798</v>
       </c>
       <c r="F14" s="0">
-        <v>0.9097105860710144</v>
+        <v>0.9483858346939087</v>
       </c>
       <c r="G14" s="0">
-        <v>0.9514673948287964</v>
+        <v>0.9754493832588196</v>
       </c>
       <c r="H14" s="0">
-        <v>0.9538506865501404</v>
+        <v>0.9724311232566833</v>
       </c>
       <c r="I14" s="0">
-        <v>0.9383697509765625</v>
+        <v>0.9663276672363281</v>
       </c>
       <c r="J14" s="0">
-        <v>0.9481961131095886</v>
+        <v>0.9736344814300537</v>
       </c>
       <c r="K14" s="0">
-        <v>0.9039543867111206</v>
+        <v>0.9566656351089478</v>
       </c>
       <c r="L14" s="0">
-        <v>0.9394749402999878</v>
+        <v>0.9777703285217285</v>
       </c>
       <c r="M14" s="0">
-        <v>0.9374417066574097</v>
+        <v>0.9697480797767639</v>
       </c>
       <c r="N14" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="O14" s="0">
-        <v>0.8854765892028809</v>
+        <v>0.9439353346824646</v>
       </c>
       <c r="P14" s="0">
-        <v>0.9454795122146606</v>
+        <v>0.9287190437316895</v>
       </c>
     </row>
     <row r="15">
@@ -815,49 +815,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0.8683268427848816</v>
+        <v>0.9414764642715454</v>
       </c>
       <c r="C15" s="0">
-        <v>0.8439347147941589</v>
+        <v>0.9222460985183716</v>
       </c>
       <c r="D15" s="0">
-        <v>0.8932701945304871</v>
+        <v>0.93817538022995</v>
       </c>
       <c r="E15" s="0">
-        <v>0.806034505367279</v>
+        <v>0.9092230200767517</v>
       </c>
       <c r="F15" s="0">
-        <v>0.903998613357544</v>
+        <v>0.94460529088974</v>
       </c>
       <c r="G15" s="0">
-        <v>0.9251284003257751</v>
+        <v>0.9596290588378906</v>
       </c>
       <c r="H15" s="0">
-        <v>0.9115075469017029</v>
+        <v>0.9427897334098816</v>
       </c>
       <c r="I15" s="0">
-        <v>0.9130144119262695</v>
+        <v>0.9524972438812256</v>
       </c>
       <c r="J15" s="0">
-        <v>0.9143189787864685</v>
+        <v>0.9514173865318298</v>
       </c>
       <c r="K15" s="0">
-        <v>0.9018213152885437</v>
+        <v>0.949671745300293</v>
       </c>
       <c r="L15" s="0">
-        <v>0.8992242813110352</v>
+        <v>0.9555644392967224</v>
       </c>
       <c r="M15" s="0">
-        <v>0.9023904204368591</v>
+        <v>0.9476518034934998</v>
       </c>
       <c r="N15" s="0">
-        <v>0.8854765892028809</v>
+        <v>0.9439353346824646</v>
       </c>
       <c r="O15" s="0">
         <v>1</v>
       </c>
       <c r="P15" s="0">
-        <v>0.9197341203689575</v>
+        <v>0.9169334769248962</v>
       </c>
     </row>
     <row r="16">
@@ -865,49 +865,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0.8456671237945557</v>
+        <v>0.8817219138145447</v>
       </c>
       <c r="C16" s="0">
-        <v>0.7935146689414978</v>
+        <v>0.8524534106254578</v>
       </c>
       <c r="D16" s="0">
-        <v>0.8542640209197998</v>
+        <v>0.8753235340118408</v>
       </c>
       <c r="E16" s="0">
-        <v>0.7991769909858704</v>
+        <v>0.8651469349861145</v>
       </c>
       <c r="F16" s="0">
-        <v>0.9258324503898621</v>
+        <v>0.9317516684532166</v>
       </c>
       <c r="G16" s="0">
-        <v>0.9713919162750244</v>
+        <v>0.944634735584259</v>
       </c>
       <c r="H16" s="0">
-        <v>0.9687541127204895</v>
+        <v>0.9360511302947998</v>
       </c>
       <c r="I16" s="0">
-        <v>0.9605309367179871</v>
+        <v>0.924644410610199</v>
       </c>
       <c r="J16" s="0">
-        <v>0.9682283401489258</v>
+        <v>0.9340088963508606</v>
       </c>
       <c r="K16" s="0">
-        <v>0.9346005320549011</v>
+        <v>0.9176278114318848</v>
       </c>
       <c r="L16" s="0">
-        <v>0.9297968745231628</v>
+        <v>0.9260687232017517</v>
       </c>
       <c r="M16" s="0">
-        <v>0.9464256167411804</v>
+        <v>0.9217697381973267</v>
       </c>
       <c r="N16" s="0">
-        <v>0.9454795122146606</v>
+        <v>0.9287190437316895</v>
       </c>
       <c r="O16" s="0">
-        <v>0.9197341203689575</v>
+        <v>0.9169334769248962</v>
       </c>
       <c r="P16" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/src/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -20,16 +20,46 @@
     <t xml:space="preserve">Grayscale</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted</t>
+    <t xml:space="preserve">GlobalThreshold_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Deskewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdaptiveThreshold</t>
   </si>
 </sst>
 </file>
@@ -74,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -99,6 +129,36 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -108,16 +168,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7520250082015991</v>
+        <v>0.9256170988082886</v>
       </c>
       <c r="D2" s="0">
-        <v>0.7531350255012512</v>
+        <v>0.9357141852378845</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7619649767875671</v>
+        <v>0.9509091377258301</v>
       </c>
       <c r="F2" s="0">
-        <v>0.7566450238227844</v>
+        <v>0.9327097535133362</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.9211363792419434</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.9049039483070374</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.9180084466934204</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.9079117774963379</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0.9092013835906982</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0.9318261742591858</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0.9232932925224304</v>
+      </c>
+      <c r="N2" s="0">
+        <v>0.9201399683952332</v>
+      </c>
+      <c r="O2" s="0">
+        <v>0.9414764642715454</v>
+      </c>
+      <c r="P2" s="0">
+        <v>0.8817219138145447</v>
       </c>
     </row>
     <row r="3">
@@ -125,19 +215,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.7520250082015991</v>
+        <v>0.9256170988082886</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.7612069845199585</v>
+        <v>0.9594947099685669</v>
       </c>
       <c r="E3" s="0">
-        <v>0.7547069787979126</v>
+        <v>0.9242032170295715</v>
       </c>
       <c r="F3" s="0">
-        <v>0.7510539889335632</v>
+        <v>0.9018773436546326</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.893177330493927</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.8850354552268982</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.8899036645889282</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.8772271275520325</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.8828825354576111</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.898924708366394</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.897709310054779</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.8840367794036865</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.9222460985183716</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.8524534106254578</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +265,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.7531350255012512</v>
+        <v>0.9357141852378845</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7612069845199585</v>
+        <v>0.9594947099685669</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="E4" s="0">
-        <v>0.7467920184135437</v>
+        <v>0.9430913925170898</v>
       </c>
       <c r="F4" s="0">
-        <v>0.7525380253791809</v>
+        <v>0.9311843514442444</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.9246788024902344</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.9107555747032166</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.9140034317970276</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.904209315776825</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.9103715419769287</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0.9184842109680176</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0.9177511930465698</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0.9107533693313599</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0.93817538022995</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0.8753235340118408</v>
       </c>
     </row>
     <row r="5">
@@ -165,19 +315,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.7619649767875671</v>
+        <v>0.9509091377258301</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7547069787979126</v>
+        <v>0.9242032170295715</v>
       </c>
       <c r="D5" s="0">
-        <v>0.7467920184135437</v>
+        <v>0.9430913925170898</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.7510250210762024</v>
+        <v>0.9209914207458496</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.9001206755638123</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.8856858015060425</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.8936685919761658</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.8812952041625977</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0.8807569146156311</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0.9036240577697754</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0.8995594382286072</v>
+      </c>
+      <c r="N5" s="0">
+        <v>0.9002088904380798</v>
+      </c>
+      <c r="O5" s="0">
+        <v>0.9092230200767517</v>
+      </c>
+      <c r="P5" s="0">
+        <v>0.8651469349861145</v>
       </c>
     </row>
     <row r="6">
@@ -185,19 +365,549 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.7566450238227844</v>
+        <v>0.9327097535133362</v>
       </c>
       <c r="C6" s="0">
-        <v>0.7510539889335632</v>
+        <v>0.9018773436546326</v>
       </c>
       <c r="D6" s="0">
-        <v>0.7525380253791809</v>
+        <v>0.9311843514442444</v>
       </c>
       <c r="E6" s="0">
-        <v>0.7510250210762024</v>
+        <v>0.9209914207458496</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.9576440453529358</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.9445624351501465</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.9501506686210632</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.9460419416427612</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0.9369499683380127</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0.9488138556480408</v>
+      </c>
+      <c r="M6" s="0">
+        <v>0.9433546662330627</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0.9483858346939087</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0.94460529088974</v>
+      </c>
+      <c r="P6" s="0">
+        <v>0.9317516684532166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.9211363792419434</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.893177330493927</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.9246788024902344</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.9001206755638123</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.9576440453529358</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.9804522395133972</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.9765084385871887</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.9822197556495667</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0.9740687608718872</v>
+      </c>
+      <c r="L7" s="0">
+        <v>0.974353551864624</v>
+      </c>
+      <c r="M7" s="0">
+        <v>0.9726462364196777</v>
+      </c>
+      <c r="N7" s="0">
+        <v>0.9754493832588196</v>
+      </c>
+      <c r="O7" s="0">
+        <v>0.9596290588378906</v>
+      </c>
+      <c r="P7" s="0">
+        <v>0.944634735584259</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.9049039483070374</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.8850354552268982</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.9107555747032166</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.8856858015060425</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.9445624351501465</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.9804522395133972</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.9760296940803528</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.9806009531021118</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0.9652830958366394</v>
+      </c>
+      <c r="L8" s="0">
+        <v>0.9684832096099854</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0.9708789587020874</v>
+      </c>
+      <c r="N8" s="0">
+        <v>0.9724311232566833</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0.9427897334098816</v>
+      </c>
+      <c r="P8" s="0">
+        <v>0.9360511302947998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.9180084466934204</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.8899036645889282</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.9140034317970276</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.8936685919761658</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.9501506686210632</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.9765084385871887</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.9760296940803528</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1.0000001192092896</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0.982770562171936</v>
+      </c>
+      <c r="K9" s="0">
+        <v>0.9716765880584717</v>
+      </c>
+      <c r="L9" s="0">
+        <v>0.9716586470603943</v>
+      </c>
+      <c r="M9" s="0">
+        <v>0.9712207317352295</v>
+      </c>
+      <c r="N9" s="0">
+        <v>0.9663276672363281</v>
+      </c>
+      <c r="O9" s="0">
+        <v>0.9524972438812256</v>
+      </c>
+      <c r="P9" s="0">
+        <v>0.924644410610199</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.9079117774963379</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.8772271275520325</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.904209315776825</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.8812952041625977</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.9460419416427612</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.9822197556495667</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.9806009531021118</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0.982770562171936</v>
+      </c>
+      <c r="J10" s="0">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0.9777085185050964</v>
+      </c>
+      <c r="L10" s="0">
+        <v>0.9762486219406128</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0.972843587398529</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0.9736344814300537</v>
+      </c>
+      <c r="O10" s="0">
+        <v>0.9514173865318298</v>
+      </c>
+      <c r="P10" s="0">
+        <v>0.9340088963508606</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.9092013835906982</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.8828825354576111</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.9103715419769287</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.8807569146156311</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.9369499683380127</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.9740687608718872</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.9652830958366394</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.9716765880584717</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.9777085185050964</v>
+      </c>
+      <c r="K11" s="0">
+        <v>1.0000001192092896</v>
+      </c>
+      <c r="L11" s="0">
+        <v>0.9661189317703247</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0.9611099362373352</v>
+      </c>
+      <c r="N11" s="0">
+        <v>0.9566656351089478</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0.949671745300293</v>
+      </c>
+      <c r="P11" s="0">
+        <v>0.9176278114318848</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.9318261742591858</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.898924708366394</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.9184842109680176</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.9036240577697754</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.9488138556480408</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.974353551864624</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.9684832096099854</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.9716586470603943</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.9762486219406128</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.9661189317703247</v>
+      </c>
+      <c r="L12" s="0">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0.968662679195404</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0.9777703285217285</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0.9555644392967224</v>
+      </c>
+      <c r="P12" s="0">
+        <v>0.9260687232017517</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.9232932925224304</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.897709310054779</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.9177511930465698</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.8995594382286072</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.9433546662330627</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.9726462364196777</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.9708789587020874</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.9712207317352295</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.972843587398529</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.9611099362373352</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0.968662679195404</v>
+      </c>
+      <c r="M13" s="0">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0.9697480797767639</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0.9476518034934998</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0.9217697381973267</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.9201399683952332</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.8840367794036865</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.9107533693313599</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.9002088904380798</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.9483858346939087</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.9754493832588196</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.9724311232566833</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.9663276672363281</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.9736344814300537</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0.9566656351089478</v>
+      </c>
+      <c r="L14" s="0">
+        <v>0.9777703285217285</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.9697480797767639</v>
+      </c>
+      <c r="N14" s="0">
+        <v>1.0000001192092896</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.9439353346824646</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0.9287190437316895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.9414764642715454</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.9222460985183716</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.93817538022995</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.9092230200767517</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.94460529088974</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.9596290588378906</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.9427897334098816</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.9524972438812256</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.9514173865318298</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.949671745300293</v>
+      </c>
+      <c r="L15" s="0">
+        <v>0.9555644392967224</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0.9476518034934998</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0.9439353346824646</v>
+      </c>
+      <c r="O15" s="0">
+        <v>1</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0.9169334769248962</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.8817219138145447</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.8524534106254578</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.8753235340118408</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.8651469349861145</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.9317516684532166</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.944634735584259</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.9360511302947998</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.924644410610199</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.9340088963508606</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0.9176278114318848</v>
+      </c>
+      <c r="L16" s="0">
+        <v>0.9260687232017517</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0.9217697381973267</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0.9287190437316895</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0.9169334769248962</v>
+      </c>
+      <c r="P16" s="0">
+        <v>1.0000001192092896</v>
       </c>
     </row>
   </sheetData>
